--- a/database/industries/urea/khorasan/cost/quarterly.xlsx
+++ b/database/industries/urea/khorasan/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D4386-EF3F-421A-8560-681D984BC218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA32AA5B-35D1-486D-8029-5365C2EEAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خراسان-پتروشیمی خراسان</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -727,16 +712,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N147"/>
+  <dimension ref="B1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,13 +730,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,13 +742,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,13 +754,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,13 +764,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,13 +776,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,13 +788,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +798,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -870,23 +820,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,163 +830,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>296644</v>
+        <v>3949828</v>
       </c>
       <c r="F10" s="9">
-        <v>526700</v>
+        <v>4460059</v>
       </c>
       <c r="G10" s="9">
-        <v>1517526</v>
+        <v>3342560</v>
       </c>
       <c r="H10" s="9">
-        <v>1253840</v>
+        <v>3307560</v>
       </c>
       <c r="I10" s="9">
-        <v>1343989</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2170889</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3949828</v>
-      </c>
-      <c r="L10" s="9">
-        <v>4460059</v>
-      </c>
-      <c r="M10" s="9">
-        <v>3342560</v>
-      </c>
-      <c r="N10" s="9">
-        <v>3307560</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2796681</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>41815</v>
+        <v>69660</v>
       </c>
       <c r="F11" s="11">
-        <v>60021</v>
+        <v>73228</v>
       </c>
       <c r="G11" s="11">
-        <v>68461</v>
+        <v>93509</v>
       </c>
       <c r="H11" s="11">
-        <v>72191</v>
+        <v>133644</v>
       </c>
       <c r="I11" s="11">
-        <v>102637</v>
-      </c>
-      <c r="J11" s="11">
-        <v>92399</v>
-      </c>
-      <c r="K11" s="11">
-        <v>69660</v>
-      </c>
-      <c r="L11" s="11">
-        <v>73228</v>
-      </c>
-      <c r="M11" s="11">
-        <v>93509</v>
-      </c>
-      <c r="N11" s="11">
-        <v>133645</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>102594</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>560320</v>
+        <v>2348707</v>
       </c>
       <c r="F12" s="9">
-        <v>840876</v>
+        <v>2740830</v>
       </c>
       <c r="G12" s="9">
-        <v>878886</v>
+        <v>3026884</v>
       </c>
       <c r="H12" s="9">
-        <v>1296318</v>
+        <v>3496250</v>
       </c>
       <c r="I12" s="9">
-        <v>1660421</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2056386</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2348707</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2740830</v>
-      </c>
-      <c r="M12" s="9">
-        <v>3026884</v>
-      </c>
-      <c r="N12" s="9">
-        <v>3496250</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3211808</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>898779</v>
+        <v>6368195</v>
       </c>
       <c r="F13" s="13">
-        <v>1427597</v>
+        <v>7274117</v>
       </c>
       <c r="G13" s="13">
-        <v>2464873</v>
+        <v>6462953</v>
       </c>
       <c r="H13" s="13">
-        <v>2622349</v>
+        <v>6937454</v>
       </c>
       <c r="I13" s="13">
-        <v>3107047</v>
-      </c>
-      <c r="J13" s="13">
-        <v>4319674</v>
-      </c>
-      <c r="K13" s="13">
-        <v>6368195</v>
-      </c>
-      <c r="L13" s="13">
-        <v>7274117</v>
-      </c>
-      <c r="M13" s="13">
-        <v>6462953</v>
-      </c>
-      <c r="N13" s="13">
-        <v>6937455</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6111083</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1070,62 +940,32 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>898779</v>
+        <v>6368195</v>
       </c>
       <c r="F15" s="13">
-        <v>1427597</v>
+        <v>7274117</v>
       </c>
       <c r="G15" s="13">
-        <v>2464873</v>
+        <v>6462953</v>
       </c>
       <c r="H15" s="13">
-        <v>2622349</v>
+        <v>6937454</v>
       </c>
       <c r="I15" s="13">
-        <v>3107047</v>
-      </c>
-      <c r="J15" s="13">
-        <v>4319674</v>
-      </c>
-      <c r="K15" s="13">
-        <v>6368195</v>
-      </c>
-      <c r="L15" s="13">
-        <v>7274117</v>
-      </c>
-      <c r="M15" s="13">
-        <v>6462953</v>
-      </c>
-      <c r="N15" s="13">
-        <v>6937455</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6111083</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1144,25 +984,10 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1181,173 +1006,98 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>898779</v>
+        <v>6368195</v>
       </c>
       <c r="F18" s="15">
-        <v>1427597</v>
+        <v>7274117</v>
       </c>
       <c r="G18" s="15">
-        <v>2464873</v>
+        <v>6462953</v>
       </c>
       <c r="H18" s="15">
-        <v>2622349</v>
+        <v>6937454</v>
       </c>
       <c r="I18" s="15">
-        <v>3107047</v>
-      </c>
-      <c r="J18" s="15">
-        <v>4319674</v>
-      </c>
-      <c r="K18" s="15">
-        <v>6368195</v>
-      </c>
-      <c r="L18" s="15">
-        <v>7274117</v>
-      </c>
-      <c r="M18" s="15">
-        <v>6462953</v>
-      </c>
-      <c r="N18" s="15">
-        <v>6937455</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6111083</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>253366</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>441745</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>2498960</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>3810521</v>
       </c>
       <c r="I19" s="11">
-        <v>296851</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11">
-        <v>2498960</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2725215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-69773</v>
+        <v>-441745</v>
       </c>
       <c r="F20" s="9">
-        <v>-333198</v>
+        <v>-2498960</v>
       </c>
       <c r="G20" s="9">
-        <v>-13362</v>
+        <v>-3810521</v>
       </c>
       <c r="H20" s="9">
-        <v>119481</v>
+        <v>-2725215</v>
       </c>
       <c r="I20" s="9">
-        <v>-901610</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-376210</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-441745</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-779395</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-3810521</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1092791</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2832257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1082372</v>
+        <v>5926450</v>
       </c>
       <c r="F21" s="13">
-        <v>1094399</v>
+        <v>6494723</v>
       </c>
       <c r="G21" s="13">
-        <v>2451511</v>
+        <v>5151392</v>
       </c>
       <c r="H21" s="13">
-        <v>2741830</v>
+        <v>8022760</v>
       </c>
       <c r="I21" s="13">
-        <v>2502288</v>
-      </c>
-      <c r="J21" s="13">
-        <v>3943464</v>
-      </c>
-      <c r="K21" s="13">
-        <v>5926450</v>
-      </c>
-      <c r="L21" s="13">
-        <v>6494723</v>
-      </c>
-      <c r="M21" s="13">
-        <v>5151392</v>
-      </c>
-      <c r="N21" s="13">
-        <v>8030246</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6004041</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1366,60 +1116,30 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1082372</v>
+        <v>5926450</v>
       </c>
       <c r="F23" s="13">
-        <v>1094399</v>
+        <v>6494723</v>
       </c>
       <c r="G23" s="13">
-        <v>2451511</v>
+        <v>5151392</v>
       </c>
       <c r="H23" s="13">
-        <v>2741830</v>
+        <v>8022760</v>
       </c>
       <c r="I23" s="13">
-        <v>2502288</v>
-      </c>
-      <c r="J23" s="13">
-        <v>3943464</v>
-      </c>
-      <c r="K23" s="13">
-        <v>5926450</v>
-      </c>
-      <c r="L23" s="13">
-        <v>6494723</v>
-      </c>
-      <c r="M23" s="13">
-        <v>5151392</v>
-      </c>
-      <c r="N23" s="13">
-        <v>8030246</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6004041</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1428,13 +1148,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1443,13 +1158,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1458,15 +1168,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1485,23 +1190,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,25 +1200,20 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -1539,99 +1224,54 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>341711</v>
-      </c>
-      <c r="F30" s="11">
-        <v>349471</v>
+        <v>477650</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="11">
-        <v>333002</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="11">
-        <v>490539</v>
-      </c>
-      <c r="J30" s="11">
-        <v>497790</v>
-      </c>
-      <c r="K30" s="11">
-        <v>477650</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="11">
         <v>777727</v>
       </c>
-      <c r="N30" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H30" s="11">
+        <v>618236</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>341711</v>
+        <v>477650</v>
       </c>
       <c r="F31" s="15">
-        <v>349471</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>333002</v>
+        <v>777727</v>
       </c>
       <c r="H31" s="15">
-        <v>0</v>
+        <v>618236</v>
       </c>
       <c r="I31" s="15">
-        <v>490539</v>
-      </c>
-      <c r="J31" s="15">
-        <v>497790</v>
-      </c>
-      <c r="K31" s="15">
-        <v>477650</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>777727</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1640,13 +1280,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1655,13 +1290,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1670,15 +1300,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1697,23 +1322,8 @@
       <c r="I35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1722,128 +1332,78 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>45607360</v>
+        <v>61815562</v>
       </c>
       <c r="F37" s="9">
-        <v>58908446</v>
+        <v>44463964</v>
       </c>
       <c r="G37" s="9">
-        <v>61738244</v>
+        <v>65131362</v>
       </c>
       <c r="H37" s="9">
-        <v>46837892</v>
+        <v>64197270</v>
       </c>
       <c r="I37" s="9">
-        <v>63295730</v>
-      </c>
-      <c r="J37" s="9">
-        <v>63527842</v>
-      </c>
-      <c r="K37" s="9">
-        <v>61815562</v>
-      </c>
-      <c r="L37" s="9">
-        <v>44463964</v>
-      </c>
-      <c r="M37" s="9">
-        <v>65131362</v>
-      </c>
-      <c r="N37" s="9">
-        <v>64197270</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>57294624</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>539013</v>
+        <v>955423</v>
       </c>
       <c r="F38" s="11">
-        <v>672129</v>
+        <v>848967</v>
       </c>
       <c r="G38" s="11">
-        <v>805024</v>
+        <v>823448</v>
       </c>
       <c r="H38" s="11">
-        <v>2885959</v>
-      </c>
-      <c r="I38" s="11">
-        <v>725920</v>
-      </c>
-      <c r="J38" s="11">
-        <v>917520</v>
-      </c>
-      <c r="K38" s="11">
-        <v>955423</v>
-      </c>
-      <c r="L38" s="11">
-        <v>848967</v>
-      </c>
-      <c r="M38" s="11">
-        <v>823448</v>
-      </c>
-      <c r="N38" s="11">
         <v>1026162</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I38" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>46146373</v>
+        <v>62770985</v>
       </c>
       <c r="F39" s="15">
-        <v>59580575</v>
+        <v>45312931</v>
       </c>
       <c r="G39" s="15">
-        <v>62543268</v>
+        <v>65954810</v>
       </c>
       <c r="H39" s="15">
-        <v>49723851</v>
+        <v>65223432</v>
       </c>
       <c r="I39" s="15">
-        <v>64021650</v>
-      </c>
-      <c r="J39" s="15">
-        <v>64445362</v>
-      </c>
-      <c r="K39" s="15">
-        <v>62770985</v>
-      </c>
-      <c r="L39" s="15">
-        <v>45312931</v>
-      </c>
-      <c r="M39" s="15">
-        <v>65954810</v>
-      </c>
-      <c r="N39" s="15">
-        <v>65223432</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>57294624</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1852,13 +1412,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1867,13 +1422,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1882,15 +1432,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1909,23 +1454,8 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1934,128 +1464,78 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>45607360</v>
+        <v>61815562</v>
       </c>
       <c r="F45" s="9">
-        <v>58908446</v>
+        <v>44463964</v>
       </c>
       <c r="G45" s="9">
-        <v>61738244</v>
+        <v>65131362</v>
       </c>
       <c r="H45" s="9">
-        <v>46837892</v>
+        <v>64197270</v>
       </c>
       <c r="I45" s="9">
-        <v>63295730</v>
-      </c>
-      <c r="J45" s="9">
-        <v>63527842</v>
-      </c>
-      <c r="K45" s="9">
-        <v>61815562</v>
-      </c>
-      <c r="L45" s="9">
-        <v>44463964</v>
-      </c>
-      <c r="M45" s="9">
-        <v>65131362</v>
-      </c>
-      <c r="N45" s="9">
-        <v>64197270</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>57294624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>531253</v>
+        <v>949516</v>
       </c>
       <c r="F46" s="11">
-        <v>688598</v>
+        <v>617889</v>
       </c>
       <c r="G46" s="11">
-        <v>780622</v>
+        <v>982939</v>
       </c>
       <c r="H46" s="11">
-        <v>2823658</v>
-      </c>
-      <c r="I46" s="11">
-        <v>718669</v>
-      </c>
-      <c r="J46" s="11">
-        <v>971225</v>
-      </c>
-      <c r="K46" s="11">
-        <v>949516</v>
-      </c>
-      <c r="L46" s="11">
-        <v>617889</v>
-      </c>
-      <c r="M46" s="11">
-        <v>982939</v>
-      </c>
-      <c r="N46" s="11">
         <v>1047768</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I46" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>46138613</v>
+        <v>62765078</v>
       </c>
       <c r="F47" s="15">
-        <v>59597044</v>
+        <v>45081853</v>
       </c>
       <c r="G47" s="15">
-        <v>62518866</v>
+        <v>66114301</v>
       </c>
       <c r="H47" s="15">
-        <v>49661550</v>
+        <v>65245038</v>
       </c>
       <c r="I47" s="15">
-        <v>64014399</v>
-      </c>
-      <c r="J47" s="15">
-        <v>64499067</v>
-      </c>
-      <c r="K47" s="15">
-        <v>62765078</v>
-      </c>
-      <c r="L47" s="15">
-        <v>45081853</v>
-      </c>
-      <c r="M47" s="15">
-        <v>66114301</v>
-      </c>
-      <c r="N47" s="15">
-        <v>65245038</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>57294624</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2064,13 +1544,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2079,13 +1554,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2094,15 +1564,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2121,23 +1586,8 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2146,18 +1596,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -2175,99 +1620,54 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>349471</v>
+        <v>323637</v>
       </c>
       <c r="F54" s="11">
-        <v>333002</v>
+        <v>554715</v>
       </c>
       <c r="G54" s="11">
-        <v>357604</v>
+        <v>618236</v>
       </c>
       <c r="H54" s="11">
-        <v>405012</v>
-      </c>
-      <c r="I54" s="11">
-        <v>497790</v>
-      </c>
-      <c r="J54" s="11">
-        <v>317730</v>
-      </c>
-      <c r="K54" s="11">
-        <v>323637</v>
-      </c>
-      <c r="L54" s="11">
-        <v>554715</v>
-      </c>
-      <c r="M54" s="11">
-        <v>618236</v>
-      </c>
-      <c r="N54" s="11">
         <v>596730</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I54" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>349471</v>
+        <v>323637</v>
       </c>
       <c r="F55" s="15">
-        <v>333002</v>
+        <v>554715</v>
       </c>
       <c r="G55" s="15">
-        <v>357604</v>
+        <v>618236</v>
       </c>
       <c r="H55" s="15">
-        <v>405012</v>
+        <v>596730</v>
       </c>
       <c r="I55" s="15">
-        <v>497790</v>
-      </c>
-      <c r="J55" s="15">
-        <v>317730</v>
-      </c>
-      <c r="K55" s="15">
-        <v>323637</v>
-      </c>
-      <c r="L55" s="15">
-        <v>554715</v>
-      </c>
-      <c r="M55" s="15">
-        <v>618236</v>
-      </c>
-      <c r="N55" s="15">
-        <v>596730</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2276,13 +1676,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2291,13 +1686,8 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2306,15 +1696,10 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2333,23 +1718,8 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2358,25 +1728,20 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
         <v>0</v>
       </c>
-      <c r="F61" s="9">
-        <v>0</v>
+      <c r="F61" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
@@ -2387,99 +1752,54 @@
       <c r="I61" s="9">
         <v>0</v>
       </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>38044</v>
-      </c>
-      <c r="F62" s="11">
-        <v>47665</v>
+        <v>340560</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G62" s="11">
-        <v>52673</v>
+        <v>458742</v>
       </c>
       <c r="H62" s="11">
-        <v>55373</v>
-      </c>
-      <c r="I62" s="11">
-        <v>246229</v>
-      </c>
-      <c r="J62" s="11">
-        <v>245300</v>
-      </c>
-      <c r="K62" s="11">
-        <v>340560</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M62" s="11">
-        <v>458742</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>491738</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>38044</v>
+        <v>340560</v>
       </c>
       <c r="F63" s="15">
-        <v>47665</v>
+        <v>0</v>
       </c>
       <c r="G63" s="15">
-        <v>52673</v>
+        <v>458742</v>
       </c>
       <c r="H63" s="15">
-        <v>55373</v>
+        <v>491738</v>
       </c>
       <c r="I63" s="15">
-        <v>246229</v>
-      </c>
-      <c r="J63" s="15">
-        <v>245300</v>
-      </c>
-      <c r="K63" s="15">
-        <v>340560</v>
-      </c>
-      <c r="L63" s="15">
-        <v>0</v>
-      </c>
-      <c r="M63" s="15">
-        <v>458742</v>
-      </c>
-      <c r="N63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2488,13 +1808,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2503,13 +1818,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2518,15 +1828,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2545,23 +1850,8 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2570,128 +1860,78 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>283494</v>
+        <v>3877227</v>
       </c>
       <c r="F69" s="9">
-        <v>514428</v>
+        <v>4386835</v>
       </c>
       <c r="G69" s="9">
-        <v>1477349</v>
+        <v>3256568</v>
       </c>
       <c r="H69" s="9">
-        <v>1213345</v>
+        <v>3209864</v>
       </c>
       <c r="I69" s="9">
-        <v>1301262</v>
-      </c>
-      <c r="J69" s="9">
-        <v>2114313</v>
-      </c>
-      <c r="K69" s="9">
-        <v>3877227</v>
-      </c>
-      <c r="L69" s="9">
-        <v>4386835</v>
-      </c>
-      <c r="M69" s="9">
-        <v>3256568</v>
-      </c>
-      <c r="N69" s="9">
-        <v>3209864</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2980369</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>22771</v>
+        <v>83858</v>
       </c>
       <c r="F70" s="11">
-        <v>17280</v>
+        <v>259892</v>
       </c>
       <c r="G70" s="11">
-        <v>33195</v>
+        <v>118988</v>
       </c>
       <c r="H70" s="11">
-        <v>56913</v>
-      </c>
-      <c r="I70" s="11">
-        <v>41798</v>
-      </c>
-      <c r="J70" s="11">
-        <v>76158</v>
-      </c>
-      <c r="K70" s="11">
-        <v>83858</v>
-      </c>
-      <c r="L70" s="11">
-        <v>259892</v>
-      </c>
-      <c r="M70" s="11">
-        <v>118988</v>
-      </c>
-      <c r="N70" s="11">
         <v>94008</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I70" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>306265</v>
+        <v>3961085</v>
       </c>
       <c r="F71" s="15">
-        <v>531708</v>
+        <v>4646727</v>
       </c>
       <c r="G71" s="15">
-        <v>1510544</v>
+        <v>3375556</v>
       </c>
       <c r="H71" s="15">
-        <v>1270258</v>
+        <v>3303872</v>
       </c>
       <c r="I71" s="15">
-        <v>1343060</v>
-      </c>
-      <c r="J71" s="15">
-        <v>2190471</v>
-      </c>
-      <c r="K71" s="15">
-        <v>3961085</v>
-      </c>
-      <c r="L71" s="15">
-        <v>4646727</v>
-      </c>
-      <c r="M71" s="15">
-        <v>3375556</v>
-      </c>
-      <c r="N71" s="15">
-        <v>3303872</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2980369</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2700,13 +1940,8 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2715,13 +1950,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2730,15 +1960,10 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2757,23 +1982,8 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2782,128 +1992,78 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>283494</v>
+        <v>3877227</v>
       </c>
       <c r="F77" s="9">
-        <v>514428</v>
+        <v>4386835</v>
       </c>
       <c r="G77" s="9">
-        <v>1477349</v>
+        <v>3256568</v>
       </c>
       <c r="H77" s="9">
-        <v>1213345</v>
+        <v>3209864</v>
       </c>
       <c r="I77" s="9">
-        <v>1301262</v>
-      </c>
-      <c r="J77" s="9">
-        <v>2114313</v>
-      </c>
-      <c r="K77" s="9">
-        <v>3877227</v>
-      </c>
-      <c r="L77" s="9">
-        <v>4386835</v>
-      </c>
-      <c r="M77" s="9">
-        <v>3256568</v>
-      </c>
-      <c r="N77" s="9">
-        <v>3209864</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2980369</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>13150</v>
+        <v>72601</v>
       </c>
       <c r="F78" s="11">
-        <v>12272</v>
+        <v>73224</v>
       </c>
       <c r="G78" s="11">
-        <v>40177</v>
+        <v>85992</v>
       </c>
       <c r="H78" s="11">
-        <v>40495</v>
-      </c>
-      <c r="I78" s="11">
-        <v>42727</v>
-      </c>
-      <c r="J78" s="11">
-        <v>56576</v>
-      </c>
-      <c r="K78" s="11">
-        <v>72601</v>
-      </c>
-      <c r="L78" s="11">
-        <v>73224</v>
-      </c>
-      <c r="M78" s="11">
-        <v>85992</v>
-      </c>
-      <c r="N78" s="11">
         <v>97696</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I78" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>296644</v>
+        <v>3949828</v>
       </c>
       <c r="F79" s="15">
-        <v>526700</v>
+        <v>4460059</v>
       </c>
       <c r="G79" s="15">
-        <v>1517526</v>
+        <v>3342560</v>
       </c>
       <c r="H79" s="15">
-        <v>1253840</v>
+        <v>3307560</v>
       </c>
       <c r="I79" s="15">
-        <v>1343989</v>
-      </c>
-      <c r="J79" s="15">
-        <v>2170889</v>
-      </c>
-      <c r="K79" s="15">
-        <v>3949828</v>
-      </c>
-      <c r="L79" s="15">
-        <v>4460059</v>
-      </c>
-      <c r="M79" s="15">
-        <v>3342560</v>
-      </c>
-      <c r="N79" s="15">
-        <v>3307560</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2980369</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2912,13 +2072,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2927,13 +2082,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2942,15 +2092,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2969,23 +2114,8 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2994,18 +2124,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
@@ -3023,99 +2148,54 @@
       <c r="I85" s="9">
         <v>0</v>
       </c>
-      <c r="J85" s="9">
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
-      </c>
-      <c r="L85" s="9">
-        <v>0</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0</v>
-      </c>
-      <c r="N85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>47665</v>
+        <v>87373</v>
       </c>
       <c r="F86" s="11">
-        <v>52673</v>
+        <v>274041</v>
       </c>
       <c r="G86" s="11">
-        <v>55373</v>
+        <v>491738</v>
       </c>
       <c r="H86" s="11">
-        <v>62308</v>
-      </c>
-      <c r="I86" s="11">
-        <v>245300</v>
-      </c>
-      <c r="J86" s="11">
-        <v>76116</v>
-      </c>
-      <c r="K86" s="11">
-        <v>87373</v>
-      </c>
-      <c r="L86" s="11">
-        <v>274041</v>
-      </c>
-      <c r="M86" s="11">
-        <v>491738</v>
-      </c>
-      <c r="N86" s="11">
         <v>488050</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I86" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>47665</v>
+        <v>87373</v>
       </c>
       <c r="F87" s="15">
-        <v>52673</v>
+        <v>274041</v>
       </c>
       <c r="G87" s="15">
-        <v>55373</v>
+        <v>491738</v>
       </c>
       <c r="H87" s="15">
-        <v>62308</v>
+        <v>488050</v>
       </c>
       <c r="I87" s="15">
-        <v>245300</v>
-      </c>
-      <c r="J87" s="15">
-        <v>76116</v>
-      </c>
-      <c r="K87" s="15">
-        <v>87373</v>
-      </c>
-      <c r="L87" s="15">
-        <v>274041</v>
-      </c>
-      <c r="M87" s="15">
-        <v>491738</v>
-      </c>
-      <c r="N87" s="15">
-        <v>488050</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3124,13 +2204,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3139,13 +2214,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3154,15 +2224,10 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3181,23 +2246,8 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3206,52 +2256,32 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>111334</v>
+        <v>239562</v>
       </c>
       <c r="F93" s="9">
-        <v>136392</v>
+        <v>269972</v>
       </c>
       <c r="G93" s="9">
-        <v>158176</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I93" s="9">
-        <v>501956</v>
-      </c>
-      <c r="J93" s="9">
-        <v>492778</v>
-      </c>
-      <c r="K93" s="9">
-        <v>239562</v>
-      </c>
-      <c r="L93" s="9">
-        <v>269972</v>
-      </c>
-      <c r="M93" s="9">
         <v>589850</v>
       </c>
-      <c r="N93" s="9">
+      <c r="H93" s="9">
         <v>795389</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I93" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3260,13 +2290,8 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3275,13 +2300,8 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3290,15 +2310,10 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3317,23 +2332,8 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N97" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3342,91 +2342,56 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>6216</v>
+        <v>62723</v>
       </c>
       <c r="F99" s="9">
-        <v>8733</v>
+        <v>98660</v>
       </c>
       <c r="G99" s="9">
-        <v>23929</v>
+        <v>50000</v>
       </c>
       <c r="H99" s="9">
-        <v>25905</v>
+        <v>50000</v>
       </c>
       <c r="I99" s="9">
-        <v>20558</v>
-      </c>
-      <c r="J99" s="9">
-        <v>33282</v>
-      </c>
-      <c r="K99" s="9">
-        <v>62723</v>
-      </c>
-      <c r="L99" s="9">
-        <v>98660</v>
-      </c>
-      <c r="M99" s="9">
-        <v>50000</v>
-      </c>
-      <c r="N99" s="9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+        <v>52018</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>42246</v>
+        <v>87771</v>
       </c>
       <c r="F100" s="11">
-        <v>25709</v>
+        <v>306127</v>
       </c>
       <c r="G100" s="11">
-        <v>41235</v>
+        <v>144500</v>
       </c>
       <c r="H100" s="11">
-        <v>19721</v>
-      </c>
-      <c r="I100" s="11">
-        <v>57579</v>
-      </c>
-      <c r="J100" s="11">
-        <v>83004</v>
-      </c>
-      <c r="K100" s="11">
-        <v>87771</v>
-      </c>
-      <c r="L100" s="11">
-        <v>306127</v>
-      </c>
-      <c r="M100" s="11">
-        <v>144500</v>
-      </c>
-      <c r="N100" s="11">
         <v>91611</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I100" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3435,13 +2400,8 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3450,13 +2410,8 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3465,15 +2420,10 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3492,23 +2442,8 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3517,91 +2452,56 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>6216</v>
+        <v>62723</v>
       </c>
       <c r="F106" s="9">
-        <v>8733</v>
+        <v>98660</v>
       </c>
       <c r="G106" s="9">
-        <v>23929</v>
+        <v>50000</v>
       </c>
       <c r="H106" s="9">
-        <v>25905</v>
+        <v>50000</v>
       </c>
       <c r="I106" s="9">
-        <v>20558</v>
-      </c>
-      <c r="J106" s="9">
-        <v>33282</v>
-      </c>
-      <c r="K106" s="9">
-        <v>62723</v>
-      </c>
-      <c r="L106" s="9">
-        <v>98660</v>
-      </c>
-      <c r="M106" s="9">
-        <v>50000</v>
-      </c>
-      <c r="N106" s="9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+        <v>52018</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>24753</v>
+        <v>76461</v>
       </c>
       <c r="F107" s="11">
-        <v>17822</v>
+        <v>118507</v>
       </c>
       <c r="G107" s="11">
-        <v>51468</v>
+        <v>87485</v>
       </c>
       <c r="H107" s="11">
-        <v>14341</v>
-      </c>
-      <c r="I107" s="11">
-        <v>59453</v>
-      </c>
-      <c r="J107" s="11">
-        <v>58252</v>
-      </c>
-      <c r="K107" s="11">
-        <v>76461</v>
-      </c>
-      <c r="L107" s="11">
-        <v>118507</v>
-      </c>
-      <c r="M107" s="11">
-        <v>87485</v>
-      </c>
-      <c r="N107" s="11">
         <v>93242</v>
       </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I107" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3610,13 +2510,8 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3625,13 +2520,8 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3640,15 +2530,10 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3667,23 +2552,8 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N111" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3692,52 +2562,32 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I113" s="9">
-        <v>492778</v>
-      </c>
-      <c r="J113" s="9">
-        <v>239562</v>
-      </c>
-      <c r="K113" s="9">
+      <c r="E113" s="9">
         <v>269972</v>
       </c>
-      <c r="L113" s="9">
+      <c r="F113" s="9">
         <v>494021</v>
       </c>
-      <c r="M113" s="9">
+      <c r="G113" s="9">
         <v>795389</v>
       </c>
-      <c r="N113" s="9">
+      <c r="H113" s="9">
         <v>817874</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I113" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3746,13 +2596,8 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3761,13 +2606,8 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3776,15 +2616,10 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3803,23 +2638,8 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K117" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N117" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3828,15 +2648,10 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3844,36 +2659,21 @@
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <v>0</v>
+        <v>1272143</v>
       </c>
       <c r="G119" s="9">
-        <v>0</v>
+        <v>331716</v>
       </c>
       <c r="H119" s="9">
-        <v>419194</v>
+        <v>587038</v>
       </c>
       <c r="I119" s="9">
-        <v>0</v>
-      </c>
-      <c r="J119" s="9">
-        <v>0</v>
-      </c>
-      <c r="K119" s="9">
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <v>1272143</v>
-      </c>
-      <c r="M119" s="9">
-        <v>331716</v>
-      </c>
-      <c r="N119" s="9">
-        <v>587038</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+        <v>276423</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -3892,25 +2692,10 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-      <c r="J120" s="11">
-        <v>0</v>
-      </c>
-      <c r="K120" s="11">
-        <v>0</v>
-      </c>
-      <c r="L120" s="11">
-        <v>0</v>
-      </c>
-      <c r="M120" s="11">
-        <v>0</v>
-      </c>
-      <c r="N120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3929,25 +2714,10 @@
       <c r="I121" s="9">
         <v>0</v>
       </c>
-      <c r="J121" s="9">
-        <v>0</v>
-      </c>
-      <c r="K121" s="9">
-        <v>0</v>
-      </c>
-      <c r="L121" s="9">
-        <v>0</v>
-      </c>
-      <c r="M121" s="9">
-        <v>0</v>
-      </c>
-      <c r="N121" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -3966,173 +2736,98 @@
       <c r="I122" s="11">
         <v>0</v>
       </c>
-      <c r="J122" s="11">
-        <v>0</v>
-      </c>
-      <c r="K122" s="11">
-        <v>0</v>
-      </c>
-      <c r="L122" s="11">
-        <v>0</v>
-      </c>
-      <c r="M122" s="11">
-        <v>0</v>
-      </c>
-      <c r="N122" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>28549</v>
+        <v>48351</v>
       </c>
       <c r="F123" s="9">
-        <v>49216</v>
+        <v>143532</v>
       </c>
       <c r="G123" s="9">
-        <v>4558</v>
+        <v>65957</v>
       </c>
       <c r="H123" s="9">
-        <v>45665</v>
+        <v>58250</v>
       </c>
       <c r="I123" s="9">
-        <v>43131</v>
-      </c>
-      <c r="J123" s="9">
-        <v>60558</v>
-      </c>
-      <c r="K123" s="9">
-        <v>48351</v>
-      </c>
-      <c r="L123" s="9">
-        <v>143532</v>
-      </c>
-      <c r="M123" s="9">
-        <v>65957</v>
-      </c>
-      <c r="N123" s="9">
-        <v>58250</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+        <v>351363</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>83793</v>
+        <v>1199947</v>
       </c>
       <c r="F124" s="11">
-        <v>265647</v>
+        <v>1483625</v>
       </c>
       <c r="G124" s="11">
-        <v>206299</v>
+        <v>1590040</v>
       </c>
       <c r="H124" s="11">
-        <v>156370</v>
+        <v>1559904</v>
       </c>
       <c r="I124" s="11">
-        <v>450613</v>
-      </c>
-      <c r="J124" s="11">
-        <v>787929</v>
-      </c>
-      <c r="K124" s="11">
-        <v>1199947</v>
-      </c>
-      <c r="L124" s="11">
-        <v>1483625</v>
-      </c>
-      <c r="M124" s="11">
-        <v>1590040</v>
-      </c>
-      <c r="N124" s="11">
-        <v>1559904</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1463774</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>35823</v>
+        <v>31715</v>
       </c>
       <c r="F125" s="9">
-        <v>51014</v>
+        <v>32278</v>
       </c>
       <c r="G125" s="9">
-        <v>23062</v>
+        <v>42498</v>
       </c>
       <c r="H125" s="9">
-        <v>28576</v>
+        <v>48241</v>
       </c>
       <c r="I125" s="9">
-        <v>29679</v>
-      </c>
-      <c r="J125" s="9">
-        <v>30751</v>
-      </c>
-      <c r="K125" s="9">
-        <v>31715</v>
-      </c>
-      <c r="L125" s="9">
-        <v>32278</v>
-      </c>
-      <c r="M125" s="9">
-        <v>42498</v>
-      </c>
-      <c r="N125" s="9">
-        <v>48241</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+        <v>47785</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>173545</v>
+        <v>274618</v>
       </c>
       <c r="F126" s="11">
-        <v>229961</v>
+        <v>291527</v>
       </c>
       <c r="G126" s="11">
-        <v>271474</v>
+        <v>341769</v>
       </c>
       <c r="H126" s="11">
-        <v>263155</v>
+        <v>513834</v>
       </c>
       <c r="I126" s="11">
-        <v>401420</v>
-      </c>
-      <c r="J126" s="11">
-        <v>331319</v>
-      </c>
-      <c r="K126" s="11">
-        <v>274618</v>
-      </c>
-      <c r="L126" s="11">
-        <v>291527</v>
-      </c>
-      <c r="M126" s="11">
-        <v>341769</v>
-      </c>
-      <c r="N126" s="11">
-        <v>513834</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+        <v>462957</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -4151,97 +2846,52 @@
       <c r="I127" s="9">
         <v>0</v>
       </c>
-      <c r="J127" s="9">
-        <v>0</v>
-      </c>
-      <c r="K127" s="9">
-        <v>0</v>
-      </c>
-      <c r="L127" s="9">
-        <v>0</v>
-      </c>
-      <c r="M127" s="9">
-        <v>0</v>
-      </c>
-      <c r="N127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>238610</v>
+        <v>794076</v>
       </c>
       <c r="F128" s="11">
-        <v>245038</v>
+        <v>-482275</v>
       </c>
       <c r="G128" s="11">
-        <v>373493</v>
+        <v>654904</v>
       </c>
       <c r="H128" s="11">
-        <v>383358</v>
+        <v>728983</v>
       </c>
       <c r="I128" s="11">
-        <v>735578</v>
-      </c>
-      <c r="J128" s="11">
-        <v>845829</v>
-      </c>
-      <c r="K128" s="11">
-        <v>794076</v>
-      </c>
-      <c r="L128" s="11">
-        <v>-482275</v>
-      </c>
-      <c r="M128" s="11">
-        <v>654904</v>
-      </c>
-      <c r="N128" s="11">
-        <v>728983</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+        <v>609506</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>560320</v>
+        <v>2348707</v>
       </c>
       <c r="F129" s="15">
-        <v>840876</v>
+        <v>2740830</v>
       </c>
       <c r="G129" s="15">
-        <v>878886</v>
+        <v>3026884</v>
       </c>
       <c r="H129" s="15">
-        <v>1296318</v>
+        <v>3496250</v>
       </c>
       <c r="I129" s="15">
-        <v>1660421</v>
-      </c>
-      <c r="J129" s="15">
-        <v>2056386</v>
-      </c>
-      <c r="K129" s="15">
-        <v>2348707</v>
-      </c>
-      <c r="L129" s="15">
-        <v>2740830</v>
-      </c>
-      <c r="M129" s="15">
-        <v>3026884</v>
-      </c>
-      <c r="N129" s="15">
-        <v>3496250</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3211808</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4250,13 +2900,8 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4265,13 +2910,8 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4280,15 +2920,10 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4297,13 +2932,8 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4312,18 +2942,13 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -4331,18 +2956,13 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -4350,95 +2970,90 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -4446,10 +3061,10 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -4457,10 +3072,10 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -4468,10 +3083,10 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>

--- a/database/industries/urea/khorasan/cost/quarterly.xlsx
+++ b/database/industries/urea/khorasan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA32AA5B-35D1-486D-8029-5365C2EEAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9082AC-83EF-41CC-9E2F-82EC4166D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -100,13 +115,13 @@
     <t>متر مکعب</t>
   </si>
   <si>
+    <t>مواد شیمیایی</t>
+  </si>
+  <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>مواد شیمیایی</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -712,16 +727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I147"/>
+  <dimension ref="B1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -730,8 +745,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,8 +762,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,8 +779,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -764,8 +794,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -776,8 +811,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,8 +828,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -798,8 +843,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -820,8 +870,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -830,98 +895,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>526700</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1517526</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1253840</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1343989</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2170889</v>
+      </c>
+      <c r="J10" s="9">
         <v>3949828</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>4460059</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>3342560</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>3307560</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2796681</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>60021</v>
+      </c>
+      <c r="F11" s="11">
+        <v>68461</v>
+      </c>
+      <c r="G11" s="11">
+        <v>72191</v>
+      </c>
+      <c r="H11" s="11">
+        <v>102637</v>
+      </c>
+      <c r="I11" s="11">
+        <v>92399</v>
+      </c>
+      <c r="J11" s="11">
         <v>69660</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>73228</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>93509</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>133644</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>102594</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>840876</v>
+      </c>
+      <c r="F12" s="9">
+        <v>878886</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1296318</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1660421</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2056386</v>
+      </c>
+      <c r="J12" s="9">
         <v>2348707</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2740830</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>3026884</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>3496250</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>3211808</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1427597</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2464873</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2622349</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3107047</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4319674</v>
+      </c>
+      <c r="J13" s="13">
         <v>6368195</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>7274117</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>6462953</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>6937454</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>6111083</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -940,32 +1070,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1427597</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2464873</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2622349</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3107047</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4319674</v>
+      </c>
+      <c r="J15" s="13">
         <v>6368195</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>7274117</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>6462953</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>6937454</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>6111083</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -984,10 +1144,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1006,32 +1181,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1427597</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2464873</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2622349</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3107047</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4319674</v>
+      </c>
+      <c r="J18" s="15">
         <v>6368195</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>7274117</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>6462953</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>6937454</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>6111083</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1039,65 +1244,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>13362</v>
+      </c>
+      <c r="H19" s="11">
+        <v>296851</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>441745</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>2498960</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>3810521</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>2725215</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-333198</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-13362</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-296852</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-901610</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-376210</v>
+      </c>
+      <c r="J20" s="9">
         <v>-441745</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-2498960</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-3810521</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-2725215</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-2832257</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1094399</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2451511</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2741830</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2502288</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3943464</v>
+      </c>
+      <c r="J21" s="13">
         <v>5926450</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>6494723</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>5151392</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>8022760</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>6004041</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1116,30 +1366,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1094399</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2451511</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2741830</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2502288</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3943464</v>
+      </c>
+      <c r="J23" s="13">
         <v>5926450</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>6494723</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>5151392</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>8022760</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>6004041</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1148,8 +1428,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1158,8 +1443,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1168,10 +1458,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1190,8 +1485,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1200,20 +1510,25 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -1224,54 +1539,99 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>349471</v>
+      </c>
+      <c r="F30" s="11">
+        <v>333002</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="11">
+        <v>490539</v>
+      </c>
+      <c r="I30" s="11">
+        <v>497790</v>
+      </c>
+      <c r="J30" s="11">
         <v>477650</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
+        <v>323637</v>
+      </c>
+      <c r="L30" s="11">
         <v>777727</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>618236</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>349471</v>
+      </c>
+      <c r="F31" s="15">
+        <v>333002</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>490539</v>
+      </c>
+      <c r="I31" s="15">
+        <v>497790</v>
+      </c>
+      <c r="J31" s="15">
         <v>477650</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>323637</v>
+      </c>
+      <c r="L31" s="15">
         <v>777727</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>618236</v>
       </c>
-      <c r="I31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1280,8 +1640,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1290,8 +1655,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1300,10 +1670,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1322,8 +1697,23 @@
       <c r="I35" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1332,78 +1722,128 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>58908446</v>
+      </c>
+      <c r="F37" s="9">
+        <v>61738244</v>
+      </c>
+      <c r="G37" s="9">
+        <v>46837892</v>
+      </c>
+      <c r="H37" s="9">
+        <v>63295730</v>
+      </c>
+      <c r="I37" s="9">
+        <v>63527842</v>
+      </c>
+      <c r="J37" s="9">
         <v>61815562</v>
       </c>
-      <c r="F37" s="9">
+      <c r="K37" s="9">
         <v>44463964</v>
       </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9">
         <v>65131362</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>64197270</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>57294624</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>672129</v>
+      </c>
+      <c r="F38" s="11">
+        <v>805024</v>
+      </c>
+      <c r="G38" s="11">
+        <v>2885959</v>
+      </c>
+      <c r="H38" s="11">
+        <v>725920</v>
+      </c>
+      <c r="I38" s="11">
+        <v>917520</v>
+      </c>
+      <c r="J38" s="11">
         <v>955423</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>848967</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>823448</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>1026162</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N38" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>59580575</v>
+      </c>
+      <c r="F39" s="15">
+        <v>62543268</v>
+      </c>
+      <c r="G39" s="15">
+        <v>49723851</v>
+      </c>
+      <c r="H39" s="15">
+        <v>64021650</v>
+      </c>
+      <c r="I39" s="15">
+        <v>64445362</v>
+      </c>
+      <c r="J39" s="15">
         <v>62770985</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>45312931</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>65954810</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>65223432</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>57294624</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1412,8 +1852,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1422,8 +1867,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1432,10 +1882,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1454,8 +1909,23 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1464,78 +1934,128 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>58908446</v>
+      </c>
+      <c r="F45" s="9">
+        <v>61738244</v>
+      </c>
+      <c r="G45" s="9">
+        <v>46837892</v>
+      </c>
+      <c r="H45" s="9">
+        <v>63295730</v>
+      </c>
+      <c r="I45" s="9">
+        <v>63527842</v>
+      </c>
+      <c r="J45" s="9">
         <v>61815562</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>44463964</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>65131362</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>64197270</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>57294624</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>688598</v>
+      </c>
+      <c r="F46" s="11">
+        <v>780622</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2823658</v>
+      </c>
+      <c r="H46" s="11">
+        <v>718669</v>
+      </c>
+      <c r="I46" s="11">
+        <v>971225</v>
+      </c>
+      <c r="J46" s="11">
         <v>949516</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>617889</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>982939</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>1047768</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>59597044</v>
+      </c>
+      <c r="F47" s="15">
+        <v>62518866</v>
+      </c>
+      <c r="G47" s="15">
+        <v>49661550</v>
+      </c>
+      <c r="H47" s="15">
+        <v>64014399</v>
+      </c>
+      <c r="I47" s="15">
+        <v>64499067</v>
+      </c>
+      <c r="J47" s="15">
         <v>62765078</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>45081853</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>66114301</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>65245038</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>57294624</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1544,8 +2064,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1554,8 +2079,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1564,10 +2094,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1586,8 +2121,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1596,13 +2146,18 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -1620,54 +2175,99 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>333002</v>
+      </c>
+      <c r="F54" s="11">
+        <v>357604</v>
+      </c>
+      <c r="G54" s="11">
+        <v>405012</v>
+      </c>
+      <c r="H54" s="11">
+        <v>497790</v>
+      </c>
+      <c r="I54" s="11">
+        <v>317730</v>
+      </c>
+      <c r="J54" s="11">
         <v>323637</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>554715</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>618236</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>596730</v>
       </c>
-      <c r="I54" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
+        <v>333002</v>
+      </c>
+      <c r="F55" s="15">
+        <v>357604</v>
+      </c>
+      <c r="G55" s="15">
+        <v>405012</v>
+      </c>
+      <c r="H55" s="15">
+        <v>497790</v>
+      </c>
+      <c r="I55" s="15">
+        <v>317730</v>
+      </c>
+      <c r="J55" s="15">
         <v>323637</v>
       </c>
-      <c r="F55" s="15">
+      <c r="K55" s="15">
         <v>554715</v>
       </c>
-      <c r="G55" s="15">
+      <c r="L55" s="15">
         <v>618236</v>
       </c>
-      <c r="H55" s="15">
+      <c r="M55" s="15">
         <v>596730</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1676,8 +2276,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1686,8 +2291,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1696,10 +2306,15 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1718,8 +2333,23 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1728,20 +2358,25 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
         <v>0</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>26</v>
+      <c r="F61" s="9">
+        <v>0</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
@@ -1752,54 +2387,99 @@
       <c r="I61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>47665</v>
+      </c>
+      <c r="F62" s="11">
+        <v>52673</v>
+      </c>
+      <c r="G62" s="11">
+        <v>55373</v>
+      </c>
+      <c r="H62" s="11">
+        <v>246229</v>
+      </c>
+      <c r="I62" s="11">
+        <v>245300</v>
+      </c>
+      <c r="J62" s="11">
         <v>340560</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="11">
+      <c r="K62" s="11">
+        <v>87373</v>
+      </c>
+      <c r="L62" s="11">
         <v>458742</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>491738</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
+        <v>47665</v>
+      </c>
+      <c r="F63" s="15">
+        <v>52673</v>
+      </c>
+      <c r="G63" s="15">
+        <v>55373</v>
+      </c>
+      <c r="H63" s="15">
+        <v>246229</v>
+      </c>
+      <c r="I63" s="15">
+        <v>245300</v>
+      </c>
+      <c r="J63" s="15">
         <v>340560</v>
       </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
-      <c r="G63" s="15">
+      <c r="K63" s="15">
+        <v>87373</v>
+      </c>
+      <c r="L63" s="15">
         <v>458742</v>
       </c>
-      <c r="H63" s="15">
+      <c r="M63" s="15">
         <v>491738</v>
       </c>
-      <c r="I63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1808,8 +2488,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1818,8 +2503,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1828,10 +2518,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1850,8 +2545,23 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1860,78 +2570,128 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>514428</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1477349</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1213345</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1301262</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2114313</v>
+      </c>
+      <c r="J69" s="9">
         <v>3877227</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>4386835</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>3256568</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>3209864</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>2980369</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>17280</v>
+      </c>
+      <c r="F70" s="11">
+        <v>33195</v>
+      </c>
+      <c r="G70" s="11">
+        <v>56913</v>
+      </c>
+      <c r="H70" s="11">
+        <v>41798</v>
+      </c>
+      <c r="I70" s="11">
+        <v>76158</v>
+      </c>
+      <c r="J70" s="11">
         <v>83858</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>259892</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>118988</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>94008</v>
       </c>
-      <c r="I70" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N70" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>531708</v>
+      </c>
+      <c r="F71" s="15">
+        <v>1510544</v>
+      </c>
+      <c r="G71" s="15">
+        <v>1270258</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1343060</v>
+      </c>
+      <c r="I71" s="15">
+        <v>2190471</v>
+      </c>
+      <c r="J71" s="15">
         <v>3961085</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>4646727</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>3375556</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>3303872</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>2980369</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1940,8 +2700,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1950,8 +2715,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1960,10 +2730,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1982,8 +2757,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1992,78 +2782,128 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>514428</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1477349</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1213345</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1301262</v>
+      </c>
+      <c r="I77" s="9">
+        <v>2114313</v>
+      </c>
+      <c r="J77" s="9">
         <v>3877227</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>4386835</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>3256568</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>3209864</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>2980369</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>12272</v>
+      </c>
+      <c r="F78" s="11">
+        <v>40177</v>
+      </c>
+      <c r="G78" s="11">
+        <v>40495</v>
+      </c>
+      <c r="H78" s="11">
+        <v>42727</v>
+      </c>
+      <c r="I78" s="11">
+        <v>56576</v>
+      </c>
+      <c r="J78" s="11">
         <v>72601</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>73224</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>85992</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>97696</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N78" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>526700</v>
+      </c>
+      <c r="F79" s="15">
+        <v>1517526</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1253840</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1343989</v>
+      </c>
+      <c r="I79" s="15">
+        <v>2170889</v>
+      </c>
+      <c r="J79" s="15">
         <v>3949828</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>4460059</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>3342560</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>3307560</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>2980369</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2072,8 +2912,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2082,8 +2927,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2092,10 +2942,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2114,8 +2969,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2124,13 +2994,18 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
@@ -2148,54 +3023,99 @@
       <c r="I85" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>52673</v>
+      </c>
+      <c r="F86" s="11">
+        <v>55373</v>
+      </c>
+      <c r="G86" s="11">
+        <v>62308</v>
+      </c>
+      <c r="H86" s="11">
+        <v>245300</v>
+      </c>
+      <c r="I86" s="11">
+        <v>76116</v>
+      </c>
+      <c r="J86" s="11">
         <v>87373</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>274041</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>491738</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>488050</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>52673</v>
+      </c>
+      <c r="F87" s="15">
+        <v>55373</v>
+      </c>
+      <c r="G87" s="15">
+        <v>62308</v>
+      </c>
+      <c r="H87" s="15">
+        <v>245300</v>
+      </c>
+      <c r="I87" s="15">
+        <v>76116</v>
+      </c>
+      <c r="J87" s="15">
         <v>87373</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>274041</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>491738</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>488050</v>
       </c>
-      <c r="I87" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2204,8 +3124,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2214,8 +3139,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2224,10 +3154,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2246,8 +3181,23 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2256,32 +3206,52 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>136392</v>
+      </c>
+      <c r="F93" s="9">
+        <v>158176</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="9">
+        <v>501956</v>
+      </c>
+      <c r="I93" s="9">
+        <v>492778</v>
+      </c>
+      <c r="J93" s="9">
         <v>239562</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>269972</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>589850</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>795389</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N93" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2290,8 +3260,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2300,8 +3275,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2310,10 +3290,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2332,8 +3317,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2342,56 +3342,91 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>8733</v>
+      </c>
+      <c r="F99" s="9">
+        <v>23929</v>
+      </c>
+      <c r="G99" s="9">
+        <v>25905</v>
+      </c>
+      <c r="H99" s="9">
+        <v>20558</v>
+      </c>
+      <c r="I99" s="9">
+        <v>33282</v>
+      </c>
+      <c r="J99" s="9">
         <v>62723</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>98660</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>50000</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>50000</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>52018</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>25709</v>
+      </c>
+      <c r="F100" s="11">
+        <v>41235</v>
+      </c>
+      <c r="G100" s="11">
+        <v>19721</v>
+      </c>
+      <c r="H100" s="11">
+        <v>57579</v>
+      </c>
+      <c r="I100" s="11">
+        <v>83004</v>
+      </c>
+      <c r="J100" s="11">
         <v>87771</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>306127</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>144500</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>91611</v>
       </c>
-      <c r="I100" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N100" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2400,8 +3435,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2410,8 +3450,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2420,10 +3465,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2442,8 +3492,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2452,56 +3517,91 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
+        <v>8733</v>
+      </c>
+      <c r="F106" s="9">
+        <v>23929</v>
+      </c>
+      <c r="G106" s="9">
+        <v>25905</v>
+      </c>
+      <c r="H106" s="9">
+        <v>20558</v>
+      </c>
+      <c r="I106" s="9">
+        <v>33282</v>
+      </c>
+      <c r="J106" s="9">
         <v>62723</v>
       </c>
-      <c r="F106" s="9">
+      <c r="K106" s="9">
         <v>98660</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>50000</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>50000</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>52018</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>17822</v>
+      </c>
+      <c r="F107" s="11">
+        <v>51468</v>
+      </c>
+      <c r="G107" s="11">
+        <v>14341</v>
+      </c>
+      <c r="H107" s="11">
+        <v>59453</v>
+      </c>
+      <c r="I107" s="11">
+        <v>58252</v>
+      </c>
+      <c r="J107" s="11">
         <v>76461</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>118507</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>87485</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>93242</v>
       </c>
-      <c r="I107" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N107" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2510,8 +3610,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2520,8 +3625,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2530,10 +3640,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2552,8 +3667,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2562,32 +3692,52 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9">
+      <c r="E113" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="9">
+        <v>492778</v>
+      </c>
+      <c r="I113" s="9">
+        <v>239562</v>
+      </c>
+      <c r="J113" s="9">
         <v>269972</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>494021</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>795389</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>817874</v>
       </c>
-      <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N113" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2596,8 +3746,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2606,8 +3761,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2616,10 +3776,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -2638,8 +3803,23 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2648,10 +3828,15 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2659,21 +3844,36 @@
         <v>0</v>
       </c>
       <c r="F119" s="9">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9">
+        <v>419194</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
+      </c>
+      <c r="I119" s="9">
+        <v>0</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
         <v>1272143</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>331716</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>587038</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>276423</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -2692,10 +3892,25 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2714,10 +3929,25 @@
       <c r="I121" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="9">
+        <v>0</v>
+      </c>
+      <c r="K121" s="9">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <v>0</v>
+      </c>
+      <c r="M121" s="9">
+        <v>0</v>
+      </c>
+      <c r="N121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2736,98 +3966,173 @@
       <c r="I122" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="11">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11">
+        <v>0</v>
+      </c>
+      <c r="N122" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>49216</v>
+      </c>
+      <c r="F123" s="9">
+        <v>4558</v>
+      </c>
+      <c r="G123" s="9">
+        <v>45665</v>
+      </c>
+      <c r="H123" s="9">
+        <v>43131</v>
+      </c>
+      <c r="I123" s="9">
+        <v>60558</v>
+      </c>
+      <c r="J123" s="9">
         <v>48351</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>143532</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>65957</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>58250</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>351363</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>265647</v>
+      </c>
+      <c r="F124" s="11">
+        <v>206299</v>
+      </c>
+      <c r="G124" s="11">
+        <v>156370</v>
+      </c>
+      <c r="H124" s="11">
+        <v>450613</v>
+      </c>
+      <c r="I124" s="11">
+        <v>787929</v>
+      </c>
+      <c r="J124" s="11">
         <v>1199947</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>1483625</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>1590040</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>1559904</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>1463774</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>51014</v>
+      </c>
+      <c r="F125" s="9">
+        <v>23062</v>
+      </c>
+      <c r="G125" s="9">
+        <v>28576</v>
+      </c>
+      <c r="H125" s="9">
+        <v>29679</v>
+      </c>
+      <c r="I125" s="9">
+        <v>30751</v>
+      </c>
+      <c r="J125" s="9">
         <v>31715</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>32278</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>42498</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>48241</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>47785</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>229961</v>
+      </c>
+      <c r="F126" s="11">
+        <v>271474</v>
+      </c>
+      <c r="G126" s="11">
+        <v>263155</v>
+      </c>
+      <c r="H126" s="11">
+        <v>401420</v>
+      </c>
+      <c r="I126" s="11">
+        <v>331319</v>
+      </c>
+      <c r="J126" s="11">
         <v>274618</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>291527</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>341769</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>513834</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>462957</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -2846,52 +4151,97 @@
       <c r="I127" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9">
+        <v>0</v>
+      </c>
+      <c r="L127" s="9">
+        <v>0</v>
+      </c>
+      <c r="M127" s="9">
+        <v>0</v>
+      </c>
+      <c r="N127" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>245038</v>
+      </c>
+      <c r="F128" s="11">
+        <v>373493</v>
+      </c>
+      <c r="G128" s="11">
+        <v>383358</v>
+      </c>
+      <c r="H128" s="11">
+        <v>735578</v>
+      </c>
+      <c r="I128" s="11">
+        <v>845829</v>
+      </c>
+      <c r="J128" s="11">
         <v>794076</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>-482275</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>654904</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>728983</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>609506</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
+        <v>840876</v>
+      </c>
+      <c r="F129" s="15">
+        <v>878886</v>
+      </c>
+      <c r="G129" s="15">
+        <v>1296318</v>
+      </c>
+      <c r="H129" s="15">
+        <v>1660421</v>
+      </c>
+      <c r="I129" s="15">
+        <v>2056386</v>
+      </c>
+      <c r="J129" s="15">
         <v>2348707</v>
       </c>
-      <c r="F129" s="15">
+      <c r="K129" s="15">
         <v>2740830</v>
       </c>
-      <c r="G129" s="15">
+      <c r="L129" s="15">
         <v>3026884</v>
       </c>
-      <c r="H129" s="15">
+      <c r="M129" s="15">
         <v>3496250</v>
       </c>
-      <c r="I129" s="15">
+      <c r="N129" s="15">
         <v>3211808</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2900,8 +4250,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2910,8 +4265,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2920,10 +4280,15 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -2932,8 +4297,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2942,13 +4312,18 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -2956,13 +4331,18 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -2970,123 +4350,128 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>

--- a/database/industries/urea/khorasan/cost/quarterly.xlsx
+++ b/database/industries/urea/khorasan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9082AC-83EF-41CC-9E2F-82EC4166D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040707CF-3ACA-416D-B332-C1A5ADF1940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -118,7 +118,7 @@
     <t>مواد شیمیایی</t>
   </si>
   <si>
-    <t>کیلوگرم</t>
+    <t>تن</t>
   </si>
   <si>
     <t>-</t>
@@ -151,7 +151,7 @@
     <t>نرخ موجودی اول دوره</t>
   </si>
   <si>
-    <t>کیلوگرم / ریال</t>
+    <t>تن / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -731,12 +731,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -800,7 +800,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -901,155 +901,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>526700</v>
+        <v>1517526</v>
       </c>
       <c r="F10" s="9">
-        <v>1517526</v>
+        <v>1253840</v>
       </c>
       <c r="G10" s="9">
-        <v>1253840</v>
+        <v>1343989</v>
       </c>
       <c r="H10" s="9">
-        <v>1343989</v>
+        <v>2170889</v>
       </c>
       <c r="I10" s="9">
-        <v>2170889</v>
+        <v>3949828</v>
       </c>
       <c r="J10" s="9">
-        <v>3949828</v>
+        <v>4460059</v>
       </c>
       <c r="K10" s="9">
-        <v>4460059</v>
+        <v>3342560</v>
       </c>
       <c r="L10" s="9">
-        <v>3342560</v>
+        <v>3307560</v>
       </c>
       <c r="M10" s="9">
-        <v>3307560</v>
+        <v>2796681</v>
       </c>
       <c r="N10" s="9">
-        <v>2796681</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1233179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>60021</v>
+        <v>68461</v>
       </c>
       <c r="F11" s="11">
-        <v>68461</v>
+        <v>72191</v>
       </c>
       <c r="G11" s="11">
-        <v>72191</v>
+        <v>102637</v>
       </c>
       <c r="H11" s="11">
-        <v>102637</v>
+        <v>92399</v>
       </c>
       <c r="I11" s="11">
-        <v>92399</v>
+        <v>69660</v>
       </c>
       <c r="J11" s="11">
-        <v>69660</v>
+        <v>73228</v>
       </c>
       <c r="K11" s="11">
-        <v>73228</v>
+        <v>93509</v>
       </c>
       <c r="L11" s="11">
-        <v>93509</v>
+        <v>133644</v>
       </c>
       <c r="M11" s="11">
-        <v>133644</v>
+        <v>102594</v>
       </c>
       <c r="N11" s="11">
-        <v>102594</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99766</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>840876</v>
+        <v>878886</v>
       </c>
       <c r="F12" s="9">
-        <v>878886</v>
+        <v>1296318</v>
       </c>
       <c r="G12" s="9">
-        <v>1296318</v>
+        <v>1660421</v>
       </c>
       <c r="H12" s="9">
-        <v>1660421</v>
+        <v>2056386</v>
       </c>
       <c r="I12" s="9">
-        <v>2056386</v>
+        <v>2348707</v>
       </c>
       <c r="J12" s="9">
-        <v>2348707</v>
+        <v>2740830</v>
       </c>
       <c r="K12" s="9">
-        <v>2740830</v>
+        <v>3026884</v>
       </c>
       <c r="L12" s="9">
-        <v>3026884</v>
+        <v>3496250</v>
       </c>
       <c r="M12" s="9">
-        <v>3496250</v>
+        <v>3211808</v>
       </c>
       <c r="N12" s="9">
-        <v>3211808</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2232505</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1427597</v>
+        <v>2464873</v>
       </c>
       <c r="F13" s="13">
-        <v>2464873</v>
+        <v>2622349</v>
       </c>
       <c r="G13" s="13">
-        <v>2622349</v>
+        <v>3107047</v>
       </c>
       <c r="H13" s="13">
-        <v>3107047</v>
+        <v>4319674</v>
       </c>
       <c r="I13" s="13">
-        <v>4319674</v>
+        <v>6368195</v>
       </c>
       <c r="J13" s="13">
-        <v>6368195</v>
+        <v>7274117</v>
       </c>
       <c r="K13" s="13">
-        <v>7274117</v>
+        <v>6462953</v>
       </c>
       <c r="L13" s="13">
-        <v>6462953</v>
+        <v>6937454</v>
       </c>
       <c r="M13" s="13">
-        <v>6937454</v>
+        <v>6111083</v>
       </c>
       <c r="N13" s="13">
-        <v>6111083</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3565450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1086,44 +1086,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1427597</v>
+        <v>2464873</v>
       </c>
       <c r="F15" s="13">
-        <v>2464873</v>
+        <v>2622349</v>
       </c>
       <c r="G15" s="13">
-        <v>2622349</v>
+        <v>3107047</v>
       </c>
       <c r="H15" s="13">
-        <v>3107047</v>
+        <v>4319674</v>
       </c>
       <c r="I15" s="13">
-        <v>4319674</v>
+        <v>6368195</v>
       </c>
       <c r="J15" s="13">
-        <v>6368195</v>
+        <v>7274117</v>
       </c>
       <c r="K15" s="13">
-        <v>7274117</v>
+        <v>6462953</v>
       </c>
       <c r="L15" s="13">
-        <v>6462953</v>
+        <v>6937454</v>
       </c>
       <c r="M15" s="13">
-        <v>6937454</v>
+        <v>6111083</v>
       </c>
       <c r="N15" s="13">
-        <v>6111083</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3565450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1197,44 +1197,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1427597</v>
+        <v>2464873</v>
       </c>
       <c r="F18" s="15">
-        <v>2464873</v>
+        <v>2622349</v>
       </c>
       <c r="G18" s="15">
-        <v>2622349</v>
+        <v>3107047</v>
       </c>
       <c r="H18" s="15">
-        <v>3107047</v>
+        <v>4319674</v>
       </c>
       <c r="I18" s="15">
-        <v>4319674</v>
+        <v>6368195</v>
       </c>
       <c r="J18" s="15">
-        <v>6368195</v>
+        <v>7274117</v>
       </c>
       <c r="K18" s="15">
-        <v>7274117</v>
+        <v>6462953</v>
       </c>
       <c r="L18" s="15">
-        <v>6462953</v>
+        <v>6937454</v>
       </c>
       <c r="M18" s="15">
-        <v>6937454</v>
+        <v>6111083</v>
       </c>
       <c r="N18" s="15">
-        <v>6111083</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3565450</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1244,108 +1244,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>416333</v>
       </c>
       <c r="G19" s="11">
-        <v>13362</v>
+        <v>296851</v>
       </c>
       <c r="H19" s="11">
-        <v>296851</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>1719565</v>
       </c>
       <c r="K19" s="11">
-        <v>441745</v>
+        <v>2498960</v>
       </c>
       <c r="L19" s="11">
-        <v>2498960</v>
+        <v>3810521</v>
       </c>
       <c r="M19" s="11">
-        <v>3810521</v>
+        <v>2725215</v>
       </c>
       <c r="N19" s="11">
-        <v>2725215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2832257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-333198</v>
+        <v>-13362</v>
       </c>
       <c r="F20" s="9">
-        <v>-13362</v>
+        <v>-296852</v>
       </c>
       <c r="G20" s="9">
-        <v>-296852</v>
+        <v>-901610</v>
       </c>
       <c r="H20" s="9">
-        <v>-901610</v>
+        <v>-376210</v>
       </c>
       <c r="I20" s="9">
-        <v>-376210</v>
+        <v>-441745</v>
       </c>
       <c r="J20" s="9">
-        <v>-441745</v>
+        <v>-2498960</v>
       </c>
       <c r="K20" s="9">
-        <v>-2498960</v>
+        <v>-3810521</v>
       </c>
       <c r="L20" s="9">
-        <v>-3810521</v>
+        <v>-2725215</v>
       </c>
       <c r="M20" s="9">
-        <v>-2725215</v>
+        <v>-2832257</v>
       </c>
       <c r="N20" s="9">
-        <v>-2832257</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-819825</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1094399</v>
+        <v>2451511</v>
       </c>
       <c r="F21" s="13">
-        <v>2451511</v>
+        <v>2741830</v>
       </c>
       <c r="G21" s="13">
-        <v>2741830</v>
+        <v>2502288</v>
       </c>
       <c r="H21" s="13">
-        <v>2502288</v>
+        <v>3943464</v>
       </c>
       <c r="I21" s="13">
-        <v>3943464</v>
+        <v>5926450</v>
       </c>
       <c r="J21" s="13">
-        <v>5926450</v>
+        <v>6494723</v>
       </c>
       <c r="K21" s="13">
-        <v>6494723</v>
+        <v>5151392</v>
       </c>
       <c r="L21" s="13">
-        <v>5151392</v>
+        <v>8022760</v>
       </c>
       <c r="M21" s="13">
-        <v>8022760</v>
+        <v>6004041</v>
       </c>
       <c r="N21" s="13">
-        <v>6004041</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5577882</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1382,44 +1382,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1094399</v>
+        <v>2451511</v>
       </c>
       <c r="F23" s="13">
-        <v>2451511</v>
+        <v>2741830</v>
       </c>
       <c r="G23" s="13">
-        <v>2741830</v>
+        <v>2502288</v>
       </c>
       <c r="H23" s="13">
-        <v>2502288</v>
+        <v>3943464</v>
       </c>
       <c r="I23" s="13">
-        <v>3943464</v>
+        <v>5926450</v>
       </c>
       <c r="J23" s="13">
-        <v>5926450</v>
+        <v>6494723</v>
       </c>
       <c r="K23" s="13">
-        <v>6494723</v>
+        <v>5151392</v>
       </c>
       <c r="L23" s="13">
-        <v>5151392</v>
+        <v>8022760</v>
       </c>
       <c r="M23" s="13">
-        <v>8022760</v>
+        <v>6004041</v>
       </c>
       <c r="N23" s="13">
-        <v>6004041</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5577882</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1434,7 +1434,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1564,74 +1564,74 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>349471</v>
-      </c>
-      <c r="F30" s="11">
         <v>333002</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="G30" s="11">
+        <v>490539</v>
+      </c>
       <c r="H30" s="11">
-        <v>490539</v>
+        <v>497790</v>
       </c>
       <c r="I30" s="11">
-        <v>497790</v>
+        <v>477650</v>
       </c>
       <c r="J30" s="11">
-        <v>477650</v>
+        <v>323637</v>
       </c>
       <c r="K30" s="11">
-        <v>323637</v>
+        <v>777727</v>
       </c>
       <c r="L30" s="11">
-        <v>777727</v>
-      </c>
-      <c r="M30" s="11">
         <v>618236</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>349471</v>
+        <v>333002</v>
       </c>
       <c r="F31" s="15">
-        <v>333002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>0</v>
+        <v>490539</v>
       </c>
       <c r="H31" s="15">
-        <v>490539</v>
+        <v>497790</v>
       </c>
       <c r="I31" s="15">
-        <v>497790</v>
+        <v>477650</v>
       </c>
       <c r="J31" s="15">
-        <v>477650</v>
+        <v>323637</v>
       </c>
       <c r="K31" s="15">
-        <v>323637</v>
+        <v>777727</v>
       </c>
       <c r="L31" s="15">
-        <v>777727</v>
+        <v>618236</v>
       </c>
       <c r="M31" s="15">
-        <v>618236</v>
+        <v>0</v>
       </c>
       <c r="N31" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1646,7 +1646,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1661,7 +1661,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -1737,37 +1737,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>58908446</v>
+        <v>61738244</v>
       </c>
       <c r="F37" s="9">
-        <v>61738244</v>
+        <v>46837892</v>
       </c>
       <c r="G37" s="9">
-        <v>46837892</v>
+        <v>63295730</v>
       </c>
       <c r="H37" s="9">
-        <v>63295730</v>
+        <v>63527842</v>
       </c>
       <c r="I37" s="9">
-        <v>63527842</v>
+        <v>61815562</v>
       </c>
       <c r="J37" s="9">
-        <v>61815562</v>
+        <v>44463964</v>
       </c>
       <c r="K37" s="9">
-        <v>44463964</v>
+        <v>65131362</v>
       </c>
       <c r="L37" s="9">
-        <v>65131362</v>
+        <v>64197270</v>
       </c>
       <c r="M37" s="9">
-        <v>64197270</v>
+        <v>57294624</v>
       </c>
       <c r="N37" s="9">
-        <v>57294624</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27005436</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>31</v>
       </c>
@@ -1776,74 +1776,74 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>672129</v>
+        <v>805024</v>
       </c>
       <c r="F38" s="11">
-        <v>805024</v>
+        <v>2885959</v>
       </c>
       <c r="G38" s="11">
-        <v>2885959</v>
+        <v>725920</v>
       </c>
       <c r="H38" s="11">
-        <v>725920</v>
+        <v>917520</v>
       </c>
       <c r="I38" s="11">
-        <v>917520</v>
+        <v>955423</v>
       </c>
       <c r="J38" s="11">
-        <v>955423</v>
+        <v>848967</v>
       </c>
       <c r="K38" s="11">
-        <v>848967</v>
+        <v>823448</v>
       </c>
       <c r="L38" s="11">
-        <v>823448</v>
-      </c>
-      <c r="M38" s="11">
         <v>1026162</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>59580575</v>
+        <v>62543268</v>
       </c>
       <c r="F39" s="15">
-        <v>62543268</v>
+        <v>49723851</v>
       </c>
       <c r="G39" s="15">
-        <v>49723851</v>
+        <v>64021650</v>
       </c>
       <c r="H39" s="15">
-        <v>64021650</v>
+        <v>64445362</v>
       </c>
       <c r="I39" s="15">
-        <v>64445362</v>
+        <v>62770985</v>
       </c>
       <c r="J39" s="15">
-        <v>62770985</v>
+        <v>45312931</v>
       </c>
       <c r="K39" s="15">
-        <v>45312931</v>
+        <v>65954810</v>
       </c>
       <c r="L39" s="15">
-        <v>65954810</v>
+        <v>65223432</v>
       </c>
       <c r="M39" s="15">
-        <v>65223432</v>
+        <v>57294624</v>
       </c>
       <c r="N39" s="15">
-        <v>57294624</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27005436</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1858,7 +1858,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1888,7 +1888,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1949,37 +1949,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>58908446</v>
+        <v>61738244</v>
       </c>
       <c r="F45" s="9">
-        <v>61738244</v>
+        <v>46837892</v>
       </c>
       <c r="G45" s="9">
-        <v>46837892</v>
+        <v>63295730</v>
       </c>
       <c r="H45" s="9">
-        <v>63295730</v>
+        <v>63527842</v>
       </c>
       <c r="I45" s="9">
-        <v>63527842</v>
+        <v>61815562</v>
       </c>
       <c r="J45" s="9">
-        <v>61815562</v>
+        <v>44463964</v>
       </c>
       <c r="K45" s="9">
-        <v>44463964</v>
+        <v>65131362</v>
       </c>
       <c r="L45" s="9">
-        <v>65131362</v>
+        <v>64197270</v>
       </c>
       <c r="M45" s="9">
-        <v>64197270</v>
+        <v>57294624</v>
       </c>
       <c r="N45" s="9">
-        <v>57294624</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27005436</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>31</v>
       </c>
@@ -1988,74 +1988,74 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>688598</v>
+        <v>780622</v>
       </c>
       <c r="F46" s="11">
-        <v>780622</v>
+        <v>2823658</v>
       </c>
       <c r="G46" s="11">
-        <v>2823658</v>
+        <v>718669</v>
       </c>
       <c r="H46" s="11">
-        <v>718669</v>
+        <v>971225</v>
       </c>
       <c r="I46" s="11">
-        <v>971225</v>
+        <v>949516</v>
       </c>
       <c r="J46" s="11">
-        <v>949516</v>
+        <v>617889</v>
       </c>
       <c r="K46" s="11">
-        <v>617889</v>
+        <v>982939</v>
       </c>
       <c r="L46" s="11">
-        <v>982939</v>
-      </c>
-      <c r="M46" s="11">
         <v>1047768</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>59597044</v>
+        <v>62518866</v>
       </c>
       <c r="F47" s="15">
-        <v>62518866</v>
+        <v>49661550</v>
       </c>
       <c r="G47" s="15">
-        <v>49661550</v>
+        <v>64014399</v>
       </c>
       <c r="H47" s="15">
-        <v>64014399</v>
+        <v>64499067</v>
       </c>
       <c r="I47" s="15">
-        <v>64499067</v>
+        <v>62765078</v>
       </c>
       <c r="J47" s="15">
-        <v>62765078</v>
+        <v>45081853</v>
       </c>
       <c r="K47" s="15">
-        <v>45081853</v>
+        <v>66114301</v>
       </c>
       <c r="L47" s="15">
-        <v>66114301</v>
+        <v>65245038</v>
       </c>
       <c r="M47" s="15">
-        <v>65245038</v>
+        <v>57294624</v>
       </c>
       <c r="N47" s="15">
-        <v>57294624</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27005436</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2070,7 +2070,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2085,7 +2085,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
@@ -2200,74 +2200,74 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>333002</v>
+        <v>357604</v>
       </c>
       <c r="F54" s="11">
-        <v>357604</v>
+        <v>405012</v>
       </c>
       <c r="G54" s="11">
-        <v>405012</v>
+        <v>497790</v>
       </c>
       <c r="H54" s="11">
-        <v>497790</v>
+        <v>317730</v>
       </c>
       <c r="I54" s="11">
-        <v>317730</v>
+        <v>323637</v>
       </c>
       <c r="J54" s="11">
-        <v>323637</v>
+        <v>554715</v>
       </c>
       <c r="K54" s="11">
-        <v>554715</v>
+        <v>618236</v>
       </c>
       <c r="L54" s="11">
-        <v>618236</v>
-      </c>
-      <c r="M54" s="11">
         <v>596730</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N54" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>333002</v>
+        <v>357604</v>
       </c>
       <c r="F55" s="15">
-        <v>357604</v>
+        <v>405012</v>
       </c>
       <c r="G55" s="15">
-        <v>405012</v>
+        <v>497790</v>
       </c>
       <c r="H55" s="15">
-        <v>497790</v>
+        <v>317730</v>
       </c>
       <c r="I55" s="15">
-        <v>317730</v>
+        <v>323637</v>
       </c>
       <c r="J55" s="15">
-        <v>323637</v>
+        <v>554715</v>
       </c>
       <c r="K55" s="15">
-        <v>554715</v>
+        <v>618236</v>
       </c>
       <c r="L55" s="15">
-        <v>618236</v>
+        <v>596730</v>
       </c>
       <c r="M55" s="15">
-        <v>596730</v>
+        <v>0</v>
       </c>
       <c r="N55" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2282,7 +2282,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2297,7 +2297,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2312,7 +2312,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
@@ -2412,74 +2412,74 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>47665</v>
+        <v>52673</v>
       </c>
       <c r="F62" s="11">
-        <v>52673</v>
+        <v>55373</v>
       </c>
       <c r="G62" s="11">
-        <v>55373</v>
+        <v>246229</v>
       </c>
       <c r="H62" s="11">
-        <v>246229</v>
+        <v>245300</v>
       </c>
       <c r="I62" s="11">
-        <v>245300</v>
+        <v>340560</v>
       </c>
       <c r="J62" s="11">
-        <v>340560</v>
+        <v>87373</v>
       </c>
       <c r="K62" s="11">
-        <v>87373</v>
+        <v>458742</v>
       </c>
       <c r="L62" s="11">
-        <v>458742</v>
-      </c>
-      <c r="M62" s="11">
         <v>491738</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>47665</v>
+        <v>52673</v>
       </c>
       <c r="F63" s="15">
-        <v>52673</v>
+        <v>55373</v>
       </c>
       <c r="G63" s="15">
-        <v>55373</v>
+        <v>246229</v>
       </c>
       <c r="H63" s="15">
-        <v>246229</v>
+        <v>245300</v>
       </c>
       <c r="I63" s="15">
-        <v>245300</v>
+        <v>340560</v>
       </c>
       <c r="J63" s="15">
-        <v>340560</v>
+        <v>87373</v>
       </c>
       <c r="K63" s="15">
-        <v>87373</v>
+        <v>458742</v>
       </c>
       <c r="L63" s="15">
-        <v>458742</v>
+        <v>491738</v>
       </c>
       <c r="M63" s="15">
-        <v>491738</v>
+        <v>0</v>
       </c>
       <c r="N63" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2494,7 +2494,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2509,7 +2509,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2524,7 +2524,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2576,7 +2576,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2585,37 +2585,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>514428</v>
+        <v>1477349</v>
       </c>
       <c r="F69" s="9">
-        <v>1477349</v>
+        <v>1213345</v>
       </c>
       <c r="G69" s="9">
-        <v>1213345</v>
+        <v>1301262</v>
       </c>
       <c r="H69" s="9">
-        <v>1301262</v>
+        <v>2114313</v>
       </c>
       <c r="I69" s="9">
-        <v>2114313</v>
+        <v>3877227</v>
       </c>
       <c r="J69" s="9">
-        <v>3877227</v>
+        <v>4386835</v>
       </c>
       <c r="K69" s="9">
-        <v>4386835</v>
+        <v>3256568</v>
       </c>
       <c r="L69" s="9">
-        <v>3256568</v>
+        <v>3209864</v>
       </c>
       <c r="M69" s="9">
-        <v>3209864</v>
+        <v>2980369</v>
       </c>
       <c r="N69" s="9">
-        <v>2980369</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1233179</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
@@ -2624,74 +2624,74 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>17280</v>
+        <v>33195</v>
       </c>
       <c r="F70" s="11">
-        <v>33195</v>
+        <v>56913</v>
       </c>
       <c r="G70" s="11">
-        <v>56913</v>
+        <v>41798</v>
       </c>
       <c r="H70" s="11">
-        <v>41798</v>
+        <v>76158</v>
       </c>
       <c r="I70" s="11">
-        <v>76158</v>
+        <v>83858</v>
       </c>
       <c r="J70" s="11">
-        <v>83858</v>
+        <v>259892</v>
       </c>
       <c r="K70" s="11">
-        <v>259892</v>
+        <v>118988</v>
       </c>
       <c r="L70" s="11">
-        <v>118988</v>
-      </c>
-      <c r="M70" s="11">
         <v>94008</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N70" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>531708</v>
+        <v>1510544</v>
       </c>
       <c r="F71" s="15">
-        <v>1510544</v>
+        <v>1270258</v>
       </c>
       <c r="G71" s="15">
-        <v>1270258</v>
+        <v>1343060</v>
       </c>
       <c r="H71" s="15">
-        <v>1343060</v>
+        <v>2190471</v>
       </c>
       <c r="I71" s="15">
-        <v>2190471</v>
+        <v>3961085</v>
       </c>
       <c r="J71" s="15">
-        <v>3961085</v>
+        <v>4646727</v>
       </c>
       <c r="K71" s="15">
-        <v>4646727</v>
+        <v>3375556</v>
       </c>
       <c r="L71" s="15">
-        <v>3375556</v>
+        <v>3303872</v>
       </c>
       <c r="M71" s="15">
-        <v>3303872</v>
+        <v>2980369</v>
       </c>
       <c r="N71" s="15">
-        <v>2980369</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1233179</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2721,7 +2721,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2736,7 +2736,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2788,7 +2788,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -2797,37 +2797,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>514428</v>
+        <v>1477349</v>
       </c>
       <c r="F77" s="9">
-        <v>1477349</v>
+        <v>1213345</v>
       </c>
       <c r="G77" s="9">
-        <v>1213345</v>
+        <v>1301262</v>
       </c>
       <c r="H77" s="9">
-        <v>1301262</v>
+        <v>2114313</v>
       </c>
       <c r="I77" s="9">
-        <v>2114313</v>
+        <v>3877227</v>
       </c>
       <c r="J77" s="9">
-        <v>3877227</v>
+        <v>4386835</v>
       </c>
       <c r="K77" s="9">
-        <v>4386835</v>
+        <v>3256568</v>
       </c>
       <c r="L77" s="9">
-        <v>3256568</v>
+        <v>3209864</v>
       </c>
       <c r="M77" s="9">
-        <v>3209864</v>
+        <v>2980369</v>
       </c>
       <c r="N77" s="9">
-        <v>2980369</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1233179</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -2836,74 +2836,74 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>12272</v>
+        <v>40177</v>
       </c>
       <c r="F78" s="11">
-        <v>40177</v>
+        <v>40495</v>
       </c>
       <c r="G78" s="11">
-        <v>40495</v>
+        <v>42727</v>
       </c>
       <c r="H78" s="11">
-        <v>42727</v>
+        <v>56576</v>
       </c>
       <c r="I78" s="11">
-        <v>56576</v>
+        <v>72601</v>
       </c>
       <c r="J78" s="11">
-        <v>72601</v>
+        <v>73224</v>
       </c>
       <c r="K78" s="11">
-        <v>73224</v>
+        <v>85992</v>
       </c>
       <c r="L78" s="11">
-        <v>85992</v>
-      </c>
-      <c r="M78" s="11">
         <v>97696</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N78" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>526700</v>
+        <v>1517526</v>
       </c>
       <c r="F79" s="15">
-        <v>1517526</v>
+        <v>1253840</v>
       </c>
       <c r="G79" s="15">
-        <v>1253840</v>
+        <v>1343989</v>
       </c>
       <c r="H79" s="15">
-        <v>1343989</v>
+        <v>2170889</v>
       </c>
       <c r="I79" s="15">
-        <v>2170889</v>
+        <v>3949828</v>
       </c>
       <c r="J79" s="15">
-        <v>3949828</v>
+        <v>4460059</v>
       </c>
       <c r="K79" s="15">
-        <v>4460059</v>
+        <v>3342560</v>
       </c>
       <c r="L79" s="15">
-        <v>3342560</v>
+        <v>3307560</v>
       </c>
       <c r="M79" s="15">
-        <v>3307560</v>
+        <v>2980369</v>
       </c>
       <c r="N79" s="15">
-        <v>2980369</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1233179</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2918,7 +2918,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2933,7 +2933,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>41</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3000,7 +3000,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -3048,74 +3048,74 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>52673</v>
+        <v>55373</v>
       </c>
       <c r="F86" s="11">
-        <v>55373</v>
+        <v>62308</v>
       </c>
       <c r="G86" s="11">
-        <v>62308</v>
+        <v>245300</v>
       </c>
       <c r="H86" s="11">
-        <v>245300</v>
+        <v>76116</v>
       </c>
       <c r="I86" s="11">
-        <v>76116</v>
+        <v>87373</v>
       </c>
       <c r="J86" s="11">
-        <v>87373</v>
+        <v>274041</v>
       </c>
       <c r="K86" s="11">
-        <v>274041</v>
+        <v>491738</v>
       </c>
       <c r="L86" s="11">
-        <v>491738</v>
-      </c>
-      <c r="M86" s="11">
         <v>488050</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N86" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>52673</v>
+        <v>55373</v>
       </c>
       <c r="F87" s="15">
-        <v>55373</v>
+        <v>62308</v>
       </c>
       <c r="G87" s="15">
-        <v>62308</v>
+        <v>245300</v>
       </c>
       <c r="H87" s="15">
-        <v>245300</v>
+        <v>76116</v>
       </c>
       <c r="I87" s="15">
-        <v>76116</v>
+        <v>87373</v>
       </c>
       <c r="J87" s="15">
-        <v>87373</v>
+        <v>274041</v>
       </c>
       <c r="K87" s="15">
-        <v>274041</v>
+        <v>491738</v>
       </c>
       <c r="L87" s="15">
-        <v>491738</v>
+        <v>488050</v>
       </c>
       <c r="M87" s="15">
-        <v>488050</v>
+        <v>0</v>
       </c>
       <c r="N87" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3130,7 +3130,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3145,7 +3145,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3160,7 +3160,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>42</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3212,7 +3212,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>31</v>
       </c>
@@ -3221,37 +3221,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>136392</v>
-      </c>
-      <c r="F93" s="9">
         <v>158176</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="F93" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="G93" s="9">
+        <v>501956</v>
+      </c>
       <c r="H93" s="9">
-        <v>501956</v>
+        <v>492778</v>
       </c>
       <c r="I93" s="9">
-        <v>492778</v>
+        <v>239562</v>
       </c>
       <c r="J93" s="9">
-        <v>239562</v>
+        <v>269972</v>
       </c>
       <c r="K93" s="9">
-        <v>269972</v>
+        <v>589850</v>
       </c>
       <c r="L93" s="9">
-        <v>589850</v>
-      </c>
-      <c r="M93" s="9">
         <v>795389</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="N93" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3266,7 +3266,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>44</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3348,7 +3348,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3357,37 +3357,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>8733</v>
+        <v>23929</v>
       </c>
       <c r="F99" s="9">
-        <v>23929</v>
+        <v>25905</v>
       </c>
       <c r="G99" s="9">
-        <v>25905</v>
+        <v>20558</v>
       </c>
       <c r="H99" s="9">
-        <v>20558</v>
+        <v>33282</v>
       </c>
       <c r="I99" s="9">
-        <v>33282</v>
+        <v>62723</v>
       </c>
       <c r="J99" s="9">
-        <v>62723</v>
+        <v>98660</v>
       </c>
       <c r="K99" s="9">
-        <v>98660</v>
+        <v>50000</v>
       </c>
       <c r="L99" s="9">
         <v>50000</v>
       </c>
       <c r="M99" s="9">
-        <v>50000</v>
+        <v>52018</v>
       </c>
       <c r="N99" s="9">
-        <v>52018</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3396,37 +3396,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>25709</v>
+        <v>41235</v>
       </c>
       <c r="F100" s="11">
-        <v>41235</v>
+        <v>19721</v>
       </c>
       <c r="G100" s="11">
-        <v>19721</v>
+        <v>57579</v>
       </c>
       <c r="H100" s="11">
-        <v>57579</v>
+        <v>83004</v>
       </c>
       <c r="I100" s="11">
-        <v>83004</v>
+        <v>87771</v>
       </c>
       <c r="J100" s="11">
-        <v>87771</v>
+        <v>306127</v>
       </c>
       <c r="K100" s="11">
-        <v>306127</v>
+        <v>144500</v>
       </c>
       <c r="L100" s="11">
-        <v>144500</v>
-      </c>
-      <c r="M100" s="11">
         <v>91611</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N100" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3441,7 +3441,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3456,7 +3456,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3471,7 +3471,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3523,7 +3523,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3532,37 +3532,37 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>8733</v>
+        <v>23929</v>
       </c>
       <c r="F106" s="9">
-        <v>23929</v>
+        <v>25905</v>
       </c>
       <c r="G106" s="9">
-        <v>25905</v>
+        <v>20558</v>
       </c>
       <c r="H106" s="9">
-        <v>20558</v>
+        <v>33282</v>
       </c>
       <c r="I106" s="9">
-        <v>33282</v>
+        <v>62723</v>
       </c>
       <c r="J106" s="9">
-        <v>62723</v>
+        <v>98660</v>
       </c>
       <c r="K106" s="9">
-        <v>98660</v>
+        <v>50000</v>
       </c>
       <c r="L106" s="9">
         <v>50000</v>
       </c>
       <c r="M106" s="9">
-        <v>50000</v>
+        <v>52018</v>
       </c>
       <c r="N106" s="9">
-        <v>52018</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>31</v>
       </c>
@@ -3571,37 +3571,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>17822</v>
+        <v>51468</v>
       </c>
       <c r="F107" s="11">
-        <v>51468</v>
+        <v>14341</v>
       </c>
       <c r="G107" s="11">
-        <v>14341</v>
+        <v>59453</v>
       </c>
       <c r="H107" s="11">
-        <v>59453</v>
+        <v>58252</v>
       </c>
       <c r="I107" s="11">
-        <v>58252</v>
+        <v>76461</v>
       </c>
       <c r="J107" s="11">
-        <v>76461</v>
+        <v>118507</v>
       </c>
       <c r="K107" s="11">
-        <v>118507</v>
+        <v>87485</v>
       </c>
       <c r="L107" s="11">
-        <v>87485</v>
-      </c>
-      <c r="M107" s="11">
         <v>93242</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N107" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3616,7 +3616,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3631,7 +3631,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3646,7 +3646,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>47</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3698,7 +3698,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>31</v>
       </c>
@@ -3712,32 +3712,32 @@
       <c r="F113" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="9">
+        <v>492778</v>
+      </c>
+      <c r="H113" s="9">
+        <v>239562</v>
+      </c>
+      <c r="I113" s="9">
+        <v>269972</v>
+      </c>
+      <c r="J113" s="9">
+        <v>494021</v>
+      </c>
+      <c r="K113" s="9">
+        <v>795389</v>
+      </c>
+      <c r="L113" s="9">
+        <v>817874</v>
+      </c>
+      <c r="M113" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="H113" s="9">
-        <v>492778</v>
-      </c>
-      <c r="I113" s="9">
-        <v>239562</v>
-      </c>
-      <c r="J113" s="9">
-        <v>269972</v>
-      </c>
-      <c r="K113" s="9">
-        <v>494021</v>
-      </c>
-      <c r="L113" s="9">
-        <v>795389</v>
-      </c>
-      <c r="M113" s="9">
-        <v>817874</v>
       </c>
       <c r="N113" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3752,7 +3752,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3782,7 +3782,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>48</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3834,7 +3834,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>49</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <v>0</v>
+        <v>419194</v>
       </c>
       <c r="G119" s="9">
-        <v>419194</v>
+        <v>0</v>
       </c>
       <c r="H119" s="9">
         <v>0</v>
@@ -3856,22 +3856,22 @@
         <v>0</v>
       </c>
       <c r="J119" s="9">
-        <v>0</v>
+        <v>1272143</v>
       </c>
       <c r="K119" s="9">
-        <v>1272143</v>
+        <v>331716</v>
       </c>
       <c r="L119" s="9">
-        <v>331716</v>
+        <v>587038</v>
       </c>
       <c r="M119" s="9">
-        <v>587038</v>
+        <v>276423</v>
       </c>
       <c r="N119" s="9">
-        <v>276423</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140912</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>50</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>51</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>52</v>
       </c>
@@ -3982,155 +3982,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>49216</v>
+        <v>4558</v>
       </c>
       <c r="F123" s="9">
-        <v>4558</v>
+        <v>45665</v>
       </c>
       <c r="G123" s="9">
-        <v>45665</v>
+        <v>43131</v>
       </c>
       <c r="H123" s="9">
-        <v>43131</v>
+        <v>60558</v>
       </c>
       <c r="I123" s="9">
-        <v>60558</v>
+        <v>48351</v>
       </c>
       <c r="J123" s="9">
-        <v>48351</v>
+        <v>143532</v>
       </c>
       <c r="K123" s="9">
-        <v>143532</v>
+        <v>65957</v>
       </c>
       <c r="L123" s="9">
-        <v>65957</v>
+        <v>58250</v>
       </c>
       <c r="M123" s="9">
-        <v>58250</v>
+        <v>351363</v>
       </c>
       <c r="N123" s="9">
-        <v>351363</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>244434</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>265647</v>
+        <v>206299</v>
       </c>
       <c r="F124" s="11">
-        <v>206299</v>
+        <v>156370</v>
       </c>
       <c r="G124" s="11">
-        <v>156370</v>
+        <v>450613</v>
       </c>
       <c r="H124" s="11">
-        <v>450613</v>
+        <v>787929</v>
       </c>
       <c r="I124" s="11">
-        <v>787929</v>
+        <v>1199947</v>
       </c>
       <c r="J124" s="11">
-        <v>1199947</v>
+        <v>1483625</v>
       </c>
       <c r="K124" s="11">
-        <v>1483625</v>
+        <v>1590040</v>
       </c>
       <c r="L124" s="11">
-        <v>1590040</v>
+        <v>1559904</v>
       </c>
       <c r="M124" s="11">
-        <v>1559904</v>
+        <v>1463774</v>
       </c>
       <c r="N124" s="11">
-        <v>1463774</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>610409</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>51014</v>
+        <v>23062</v>
       </c>
       <c r="F125" s="9">
-        <v>23062</v>
+        <v>28576</v>
       </c>
       <c r="G125" s="9">
-        <v>28576</v>
+        <v>29679</v>
       </c>
       <c r="H125" s="9">
-        <v>29679</v>
+        <v>30751</v>
       </c>
       <c r="I125" s="9">
-        <v>30751</v>
+        <v>31715</v>
       </c>
       <c r="J125" s="9">
-        <v>31715</v>
+        <v>32278</v>
       </c>
       <c r="K125" s="9">
-        <v>32278</v>
+        <v>42498</v>
       </c>
       <c r="L125" s="9">
-        <v>42498</v>
+        <v>48241</v>
       </c>
       <c r="M125" s="9">
-        <v>48241</v>
+        <v>47785</v>
       </c>
       <c r="N125" s="9">
-        <v>47785</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76740</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>229961</v>
+        <v>271474</v>
       </c>
       <c r="F126" s="11">
-        <v>271474</v>
+        <v>263155</v>
       </c>
       <c r="G126" s="11">
-        <v>263155</v>
+        <v>401420</v>
       </c>
       <c r="H126" s="11">
-        <v>401420</v>
+        <v>331319</v>
       </c>
       <c r="I126" s="11">
-        <v>331319</v>
+        <v>274618</v>
       </c>
       <c r="J126" s="11">
-        <v>274618</v>
+        <v>291527</v>
       </c>
       <c r="K126" s="11">
-        <v>291527</v>
+        <v>341769</v>
       </c>
       <c r="L126" s="11">
-        <v>341769</v>
+        <v>513834</v>
       </c>
       <c r="M126" s="11">
-        <v>513834</v>
+        <v>462957</v>
       </c>
       <c r="N126" s="11">
-        <v>462957</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>480645</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>57</v>
       </c>
@@ -4167,81 +4167,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>245038</v>
+        <v>373493</v>
       </c>
       <c r="F128" s="11">
-        <v>373493</v>
+        <v>383358</v>
       </c>
       <c r="G128" s="11">
-        <v>383358</v>
+        <v>735578</v>
       </c>
       <c r="H128" s="11">
-        <v>735578</v>
+        <v>845829</v>
       </c>
       <c r="I128" s="11">
-        <v>845829</v>
+        <v>794076</v>
       </c>
       <c r="J128" s="11">
-        <v>794076</v>
+        <v>-482275</v>
       </c>
       <c r="K128" s="11">
-        <v>-482275</v>
+        <v>654904</v>
       </c>
       <c r="L128" s="11">
-        <v>654904</v>
+        <v>728983</v>
       </c>
       <c r="M128" s="11">
-        <v>728983</v>
+        <v>609506</v>
       </c>
       <c r="N128" s="11">
-        <v>609506</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>679365</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>840876</v>
+        <v>878886</v>
       </c>
       <c r="F129" s="15">
-        <v>878886</v>
+        <v>1296318</v>
       </c>
       <c r="G129" s="15">
-        <v>1296318</v>
+        <v>1660421</v>
       </c>
       <c r="H129" s="15">
-        <v>1660421</v>
+        <v>2056386</v>
       </c>
       <c r="I129" s="15">
-        <v>2056386</v>
+        <v>2348707</v>
       </c>
       <c r="J129" s="15">
-        <v>2348707</v>
+        <v>2740830</v>
       </c>
       <c r="K129" s="15">
-        <v>2740830</v>
+        <v>3026884</v>
       </c>
       <c r="L129" s="15">
-        <v>3026884</v>
+        <v>3496250</v>
       </c>
       <c r="M129" s="15">
-        <v>3496250</v>
+        <v>3211808</v>
       </c>
       <c r="N129" s="15">
-        <v>3211808</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2232505</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4256,7 +4256,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4286,7 +4286,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>59</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4318,7 +4318,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>60</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>62</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>64</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>66</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>62</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>69</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>71</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>73</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>75</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>77</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>79</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>81</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>73</v>
       </c>
